--- a/data/Templates.xlsx
+++ b/data/Templates.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucomplutense-my.sharepoint.com/personal/aguesier_ucm_es/Documents/Escritorio/modelosVA/calculoVA_datos_ensayos_clinicos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucomplutense-my.sharepoint.com/personal/aguesier_ucm_es/Documents/Escritorio/ML-VA-Prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4D2F04E46CFB4ACB3E206BED93C168693EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E24D13F-2B48-418E-8B12-AD039C10E83C}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_AD4D2F04E46CFB4ACB3E206BED93C168693EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A22F37-C7B3-476B-9B6C-BF623C7E3BF1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plantilla 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Template 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,13 +460,13 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -550,7 +550,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -571,7 +571,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -592,7 +592,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -613,7 +613,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -634,7 +634,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -655,7 +655,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -676,7 +676,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -697,7 +697,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -739,7 +739,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -760,7 +760,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -794,13 +794,13 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -940,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -960,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -980,7 +980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
